--- a/biology/Botanique/Erythrina/Erythrina.xlsx
+++ b/biology/Botanique/Erythrina/Erythrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrina est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, à répartition pantropicale, qui comprend 129 espèces acceptées.
 Ses espèces sont distribuées un peu partout sur le globe dans les régions tropicales et subtropicales. 
@@ -513,13 +525,15 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Erythrina sont des arbres ou des arbustes, plus rarement des plantes herbacées vivaces, munies de piquants.
 Les feuilles trifoliées présentes de petites stipules.
 Les fleurs, remarquables par leur couleur et leur forme, sont groupées en inflorescences racémeuses terminales ou axillaires.
 La corolle, souvent rouge ou orange, est en général plus longue que le calice, et présente des pétales très inégaux : l'étendard large, arrondi ou oblong est souvent plié longitudinalement, dressé ou étalé, les ailes sont courtes, parfois absentes, la carène très courte. Les étamines sont diadelphes, avec une étamine vexillaire libre. L'ovaire stipité (pédicellé) compte de 2 à de nombreux ovules.
-Les fruits sont des gousses stipitées, le plus souvent linéaires-oblongues, souvent courbées, généralement déhiscentes le long de la suture ventrale, rarement indéhiscentes, généralement coriaces ou ligneuses, souvent rétrécies entre les graines mais non cloisonnées. Elles comptent de 1 à 14 graines ovoïdes, de couleur  blanche, grise ou brune, rarement rouge avec des taches foncées[2].
+Les fruits sont des gousses stipitées, le plus souvent linéaires-oblongues, souvent courbées, généralement déhiscentes le long de la suture ventrale, rarement indéhiscentes, généralement coriaces ou ligneuses, souvent rétrécies entre les graines mais non cloisonnées. Elles comptent de 1 à 14 graines ovoïdes, de couleur  blanche, grise ou brune, rarement rouge avec des taches foncées.
 Certaines espèces présentes en Nouvelle-Calédonie attiraent les roussettes et sont appelées pour cette raison arbres à roussettes.
 </t>
         </is>
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (3 novembre 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (3 novembre 2018) :
 Erythrina abyssinica DC.
 Erythrina acanthocarpa E.Mey.
 Erythrina addisoniae Hutch. &amp; Dalziel
@@ -709,9 +725,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Mexique, certaines espèces de Erythrina sont considérées comme des arbres divinatoires légendaires connus localement comme tsité[4]. Leurs graines sont vendues sur les marchés avec celles de Calia secundiflora ce qui laisse supposer un caractère hallucinogène. Elles sont utilisées dans le patolli, un jeu rituel[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Mexique, certaines espèces de Erythrina sont considérées comme des arbres divinatoires légendaires connus localement comme tsité. Leurs graines sont vendues sur les marchés avec celles de Calia secundiflora ce qui laisse supposer un caractère hallucinogène. Elles sont utilisées dans le patolli, un jeu rituel.
 </t>
         </is>
       </c>
